--- a/graphs/STM32F/dijkstra/dijkstra.xlsx
+++ b/graphs/STM32F/dijkstra/dijkstra.xlsx
@@ -6,8 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dijkstra_input_ccm" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="dijkstra_input_ram" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="dijkstra_input_ccm code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dijkstra_input_ccm code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="dijkstra_input_ram code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="dijkstra_input_ram code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,32 +464,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FLASH 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CCM 24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FLASH 48</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CCM 48</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FLASH 72</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CCM 72</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -501,19 +488,10 @@
         <v>13658.29965377762</v>
       </c>
       <c r="C2" t="n">
-        <v>11851.7355026581</v>
+        <v>23685.54773270165</v>
       </c>
       <c r="D2" t="n">
-        <v>23685.54773270165</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22982.01089362742</v>
-      </c>
-      <c r="F2" t="n">
         <v>31501.07700564517</v>
-      </c>
-      <c r="G2" t="n">
-        <v>34024.83088938572</v>
       </c>
     </row>
     <row r="3">
@@ -526,19 +504,10 @@
         <v>0.94462</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9448</v>
+        <v>0.5515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5515</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.47266</v>
-      </c>
-      <c r="F3" t="n">
         <v>0.43392</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.31526</v>
       </c>
     </row>
     <row r="4">
@@ -554,28 +523,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(1882.86, 2827.66)</t>
+          <t>(3806.92, 4358.42)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(3806.92, 4358.42)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(4554.48, 5027.14)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>(6006.38, 6440.3)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(6636.24, 6951.5)</t>
-        </is>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>42576.27996253967</v>
+      </c>
+      <c r="C5" t="n">
+        <v>43106.51259613037</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45107.52620315551</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,32 +570,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>FLASH 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>CCM 24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>FLASH 48</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>CCM 48</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>FLASH 72</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>CCM 72</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -636,22 +591,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14037.15386983452</v>
+        <v>11851.7355026581</v>
       </c>
       <c r="C2" t="n">
-        <v>12112.74827389945</v>
+        <v>22982.01089362742</v>
       </c>
       <c r="D2" t="n">
-        <v>24262.78369182243</v>
-      </c>
-      <c r="E2" t="n">
-        <v>23487.10307937998</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31890.84216007496</v>
-      </c>
-      <c r="G2" t="n">
-        <v>34845.6205039571</v>
+        <v>34024.83088938572</v>
       </c>
     </row>
     <row r="3">
@@ -661,22 +607,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9083599999999999</v>
+        <v>0.9448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9086</v>
+        <v>0.47266</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53382</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.45402</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.42204</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.30288</v>
+        <v>0.31526</v>
       </c>
     </row>
     <row r="4">
@@ -687,33 +624,246 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>(1882.86, 2827.66)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(4554.48, 5027.14)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(6636.24, 6951.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>36951.81501960754</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35846.83498764038</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35398.00501441955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14037.15386983452</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24262.78369182243</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31890.84216007496</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9083599999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.53382</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42204</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(1110.6, 2018.96)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>(4103.12, 4636.94)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(6266.48, 6688.52)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>42077.6039943695</v>
+      </c>
+      <c r="C5" t="n">
+        <v>42741.46532821655</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44415.39638328552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12112.74827389945</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23487.10307937998</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34845.6205039571</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9086</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.45402</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.30288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(2215.02, 3123.62)</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(4832.96, 5286.98)</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(4103.12, 4636.94)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(4832.96, 5286.98)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(6266.48, 6688.52)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>(6884.52, 7187.4)</t>
         </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>36318.62216949463</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35189.92798233031</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34828.33707618713</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/dijkstra/dijkstra.xlsx
+++ b/graphs/STM32F/dijkstra/dijkstra.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dijkstra_input_ccm code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="dijkstra_input_ccm code_CCM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="dijkstra_input_ram code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="dijkstra_input_ram code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_CCM code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_CCM code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_RAM code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_RAM code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13658.29965377762</v>
+        <v>13658</v>
       </c>
       <c r="C2" t="n">
-        <v>23685.54773270165</v>
+        <v>23686</v>
       </c>
       <c r="D2" t="n">
-        <v>31501.07700564517</v>
+        <v>31501</v>
       </c>
     </row>
     <row r="3">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42576.27996253967</v>
+        <v>42.575</v>
       </c>
       <c r="C5" t="n">
-        <v>43106.51259613037</v>
+        <v>43.107</v>
       </c>
       <c r="D5" t="n">
-        <v>45107.52620315551</v>
+        <v>45.107</v>
       </c>
     </row>
   </sheetData>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11851.7355026581</v>
+        <v>11852</v>
       </c>
       <c r="C2" t="n">
-        <v>22982.01089362742</v>
+        <v>22982</v>
       </c>
       <c r="D2" t="n">
-        <v>34024.83088938572</v>
+        <v>34025</v>
       </c>
     </row>
     <row r="3">
@@ -645,13 +645,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36951.81501960754</v>
+        <v>36.953</v>
       </c>
       <c r="C5" t="n">
-        <v>35846.83498764038</v>
+        <v>35.847</v>
       </c>
       <c r="D5" t="n">
-        <v>35398.00501441955</v>
+        <v>35.398</v>
       </c>
     </row>
   </sheetData>
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14037.15386983452</v>
+        <v>14037</v>
       </c>
       <c r="C2" t="n">
-        <v>24262.78369182243</v>
+        <v>24263</v>
       </c>
       <c r="D2" t="n">
-        <v>31890.84216007496</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="3">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42077.6039943695</v>
+        <v>42.077</v>
       </c>
       <c r="C5" t="n">
-        <v>42741.46532821655</v>
+        <v>42.742</v>
       </c>
       <c r="D5" t="n">
-        <v>44415.39638328552</v>
+        <v>44.416</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12112.74827389945</v>
+        <v>12113</v>
       </c>
       <c r="C2" t="n">
-        <v>23487.10307937998</v>
+        <v>23487</v>
       </c>
       <c r="D2" t="n">
-        <v>34845.6205039571</v>
+        <v>34846</v>
       </c>
     </row>
     <row r="3">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36318.62216949463</v>
+        <v>36.319</v>
       </c>
       <c r="C5" t="n">
-        <v>35189.92798233031</v>
+        <v>35.19</v>
       </c>
       <c r="D5" t="n">
-        <v>34828.33707618713</v>
+        <v>34.829</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/dijkstra/dijkstra.xlsx
+++ b/graphs/STM32F/dijkstra/dijkstra.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data_CCM code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data_CCM code_CCM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="data_RAM code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="data_RAM code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_CCM-code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_CCM-code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_RAM-code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_RAM-code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
